--- a/MS/Integrate/PhO2SOPh/Calibr-PhO2SOPh.xlsx
+++ b/MS/Integrate/PhO2SOPh/Calibr-PhO2SOPh.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Calibr-PhO2SOPh" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,39 +20,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t xml:space="preserve">; v1; ; ; ; v2; ; ; ; v3; ; ; ; v4; ; ; ; v5; ; ; ;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C; M+H; M+Na; M+K; Sum; M+H; M+Na; M+K; Sum; M+H; M+Na; M+K; Sum; M+H; M+Na; M+K; Sum; M+H; M+Na; M+K; Sum;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L4;  162581.9;  197891.2;  24997.3;  385470.5;  169042.7;  257327.7;  30838.7;  457209.0;  209516.8;  288313.1;  33614.0;  531443.9;  205801.8;  265031.3;  28380.1;  499213.2;  154275.6;  335544.9;  40049.0;  529869.6; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L5;  183048.2;  230296.4;  28007.4;  441351.9;  169463.0;  268395.2;  30293.0;  468151.2;  201282.9;  288559.8;  32260.1;  522102.8;  206610.2;  268432.8;  29792.9;  504835.9;  146097.6;  323227.7;  41007.1;  510332.4; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L6;  149994.8;  138879.8;  16335.7;  305210.3;  158422.0;  143975.8;  16456.4;  318854.2;  150629.3;  169409.5;  19386.2;  339425.0;  151091.4;  157378.8;  16790.9;  325261.2;  111879.5;  183010.1;  21713.3;  316602.9; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L7;  131741.1;  90071.1;  9985.2;  231797.4;  117305.9;  86758.1;  9034.2;  213098.2;  125343.7;  101957.1;  11336.3;  238637.0;  120254.8;  107558.8;  12691.3;  240504.9;  89127.9;  104741.9;  13381.3;  207251.1; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L8;  97047.3;  42276.0;  5557.0;  144880.3;  82974.0;  52416.1;  6510.2;  141900.3;  104693.7;  65413.9;  8311.5;  178419.1;  88106.5;  64335.0;  8072.4;  160513.9;  87112.8;  73998.3;  8841.3;  169952.4; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L9;  84551.8;  26783.8;  2931.8;  114267.3;  76696.1;  39451.3;  4000.0;  120147.4;  87254.1;  41281.6;  4520.0;  133055.7;  84396.2;  41329.7;  4798.6;  130524.5;  79264.0;  36127.3;  4305.8;  119697.1; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L10;  55712.7;  21602.2;  2561.0;  79875.9;  53317.2;  21716.8;  2036.8;  77070.8;  53335.3;  21700.1;  2976.2;  78011.7;  60537.6;  21156.0;  3001.5;  84695.0;  57041.2;  21834.9;  2672.5;  81548.7; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L11;  28448.4;  10056.4;  678.7;  39183.5;  28939.8;  10809.9;  615.5;  40365.2;  29312.2;  10035.5;  1312.8;  40660.5;  29498.6;  11039.9;  1776.4;  42314.9;  27765.6;  11256.5;  1341.1;  40363.1; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L12;  14686.6;  6557.8;  477.0;  21721.3;  14832.9;  5986.3;  273.3;  21092.5;  12907.2;  5635.3;  208.1;  18750.6;  9537.7;  4253.9;  927.6;  14719.1;  15808.1;  6513.3;  531.4;  22852.8; </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
+  <si>
+    <t xml:space="preserve"> v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> v3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> v4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> v5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M+H</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M+Na</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M+K</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L12</t>
   </si>
 </sst>
 </file>
@@ -62,11 +92,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -82,6 +113,32 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF009933"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,21 +183,339 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF009933"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calibr-PhO2SOPh'!$W$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Calibr-PhO2SOPh'!$W$3:$W$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>480641.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>489354.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>321070.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>226257.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>159133.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>123538.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80240.42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40577.44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19827.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="59057514"/>
+        <c:axId val="19458437"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="59057514"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="19458437"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="19458437"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="59057514"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>407880</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>558000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>105120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2575080" y="1902960"/>
+        <a:ext cx="5759640" cy="3241440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -148,71 +523,823 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P17" activeCellId="0" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="180.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="9.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="9.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="9.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="9.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="9.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="9.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="8.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="9.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="9.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="8.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="9.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="3.74"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="B1" s="0" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>162581.9</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>197891.2</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>24997.3</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>385470.5</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>169042.7</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>257327.7</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>30838.7</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>457209</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>209516.8</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>288313.1</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>33614</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>531443.9</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>205801.8</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>265031.3</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>28380.1</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>499213.2</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>154275.6</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>335544.9</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>40049</v>
+      </c>
+      <c r="U3" s="2" t="n">
+        <v>529869.6</v>
+      </c>
+      <c r="V3" s="1" t="str">
+        <f aca="false">A3</f>
+        <v>L4</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <f aca="false">(E3+I3+M3+Q3+U3)/5</f>
+        <v>480641.24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>183048.2</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>230296.4</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>28007.4</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>441351.9</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>169463</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>268395.2</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>30293</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>468151.2</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>201282.9</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>288559.8</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>32260.1</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>522102.8</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>206610.2</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>268432.8</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>29792.9</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>504835.9</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>146097.6</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>323227.7</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>41007.1</v>
+      </c>
+      <c r="U4" s="2" t="n">
+        <v>510332.4</v>
+      </c>
+      <c r="V4" s="1" t="str">
+        <f aca="false">A4</f>
+        <v>L5</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <f aca="false">(E4+I4+M4+Q4+U4)/5</f>
+        <v>489354.84</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>149994.8</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>138879.8</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>16335.7</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>305210.3</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>158422</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>143975.8</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>16456.4</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>318854.2</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>150629.3</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>169409.5</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>19386.2</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>339425</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>151091.4</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>157378.8</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>16790.9</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>325261.2</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>111879.5</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>183010.1</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>21713.3</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>316602.9</v>
+      </c>
+      <c r="V5" s="1" t="str">
+        <f aca="false">A5</f>
+        <v>L6</v>
+      </c>
+      <c r="W5" s="3" t="n">
+        <f aca="false">(E5+I5+M5+Q5+U5)/5</f>
+        <v>321070.72</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>131741.1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>90071.1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>9985.2</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>231797.4</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>117305.9</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>86758.1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>9034.2</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>213098.2</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>125343.7</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>101957.1</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>11336.3</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>238637</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>120254.8</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>107558.8</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>12691.3</v>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>240504.9</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>89127.9</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>104741.9</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>13381.3</v>
+      </c>
+      <c r="U6" s="2" t="n">
+        <v>207251.1</v>
+      </c>
+      <c r="V6" s="1" t="str">
+        <f aca="false">A6</f>
+        <v>L7</v>
+      </c>
+      <c r="W6" s="3" t="n">
+        <f aca="false">(E6+I6+M6+Q6+U6)/5</f>
+        <v>226257.72</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>97047.3</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>42276</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>5557</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>144880.3</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>82974</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>52416.1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>6510.2</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>141900.3</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>104693.7</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>65413.9</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>8311.5</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>178419.1</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>88106.5</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>64335</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>8072.4</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>160513.9</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>87112.8</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>73998.3</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>8841.3</v>
+      </c>
+      <c r="U7" s="2" t="n">
+        <v>169952.4</v>
+      </c>
+      <c r="V7" s="1" t="str">
+        <f aca="false">A7</f>
+        <v>L8</v>
+      </c>
+      <c r="W7" s="3" t="n">
+        <f aca="false">(E7+I7+M7+Q7+U7)/5</f>
+        <v>159133.2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>84551.8</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>26783.8</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>2931.8</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>114267.3</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>76696.1</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>39451.3</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>120147.4</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>87254.1</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>41281.6</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>4520</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>133055.7</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>84396.2</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>41329.7</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>4798.6</v>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <v>130524.5</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>79264</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>36127.3</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>4305.8</v>
+      </c>
+      <c r="U8" s="2" t="n">
+        <v>119697.1</v>
+      </c>
+      <c r="V8" s="1" t="str">
+        <f aca="false">A8</f>
+        <v>L9</v>
+      </c>
+      <c r="W8" s="3" t="n">
+        <f aca="false">(E8+I8+M8+Q8+U8)/5</f>
+        <v>123538.4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>55712.7</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>21602.2</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>2561</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>79875.9</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>53317.2</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>21716.8</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>2036.8</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>77070.8</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>53335.3</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>21700.1</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>2976.2</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>78011.7</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>60537.6</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>21156</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>3001.5</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>84695</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>57041.2</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>21834.9</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>2672.5</v>
+      </c>
+      <c r="U9" s="2" t="n">
+        <v>81548.7</v>
+      </c>
+      <c r="V9" s="1" t="str">
+        <f aca="false">A9</f>
+        <v>L10</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <f aca="false">(E9+I9+M9+Q9+U9)/5</f>
+        <v>80240.42</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>28448.4</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>10056.4</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>678.7</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>39183.5</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>28939.8</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>10809.9</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>615.5</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>40365.2</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>29312.2</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>10035.5</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>1312.8</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>40660.5</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>29498.6</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>11039.9</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>1776.4</v>
+      </c>
+      <c r="Q10" s="2" t="n">
+        <v>42314.9</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>27765.6</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>11256.5</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>1341.1</v>
+      </c>
+      <c r="U10" s="2" t="n">
+        <v>40363.1</v>
+      </c>
+      <c r="V10" s="1" t="str">
+        <f aca="false">A10</f>
+        <v>L11</v>
+      </c>
+      <c r="W10" s="3" t="n">
+        <f aca="false">(E10+I10+M10+Q10+U10)/5</f>
+        <v>40577.44</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>14686.6</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>6557.8</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>477</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>21721.3</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>14832.9</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>5986.3</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>273.3</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>21092.5</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>12907.2</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>5635.3</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>208.1</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>18750.6</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>9537.7</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>4253.9</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>927.6</v>
+      </c>
+      <c r="Q11" s="2" t="n">
+        <v>14719.1</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>15808.1</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>6513.3</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>531.4</v>
+      </c>
+      <c r="U11" s="2" t="n">
+        <v>22852.8</v>
+      </c>
+      <c r="V11" s="1" t="str">
+        <f aca="false">A11</f>
+        <v>L12</v>
+      </c>
+      <c r="W11" s="3" t="n">
+        <f aca="false">(E11+I11+M11+Q11+U11)/5</f>
+        <v>19827.26</v>
       </c>
     </row>
   </sheetData>
@@ -223,5 +1350,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>